--- a/data/pca/factorExposure/factorExposure_2017-06-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02387743665640243</v>
+        <v>-0.01071054443862648</v>
       </c>
       <c r="C2">
-        <v>0.001779455081294003</v>
+        <v>0.04527680270346456</v>
       </c>
       <c r="D2">
-        <v>-0.03377292588992488</v>
+        <v>-0.02989524121975194</v>
       </c>
       <c r="E2">
-        <v>-0.003225746414992654</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03369900426974876</v>
+      </c>
+      <c r="F2">
+        <v>-0.01014019131707112</v>
+      </c>
+      <c r="G2">
+        <v>-0.09677802430744266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01799426683446003</v>
+        <v>-0.04466904076864299</v>
       </c>
       <c r="C3">
-        <v>-0.043744942372997</v>
+        <v>0.09964186589689773</v>
       </c>
       <c r="D3">
-        <v>-0.0969716021313584</v>
+        <v>-0.01687926833277547</v>
       </c>
       <c r="E3">
-        <v>-0.01621469155207812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09556336655319767</v>
+      </c>
+      <c r="F3">
+        <v>-0.002673922077158087</v>
+      </c>
+      <c r="G3">
+        <v>-0.1861028852425404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02535450646142829</v>
+        <v>-0.05589112329153303</v>
       </c>
       <c r="C4">
-        <v>-0.01507497837281821</v>
+        <v>0.06817475902605474</v>
       </c>
       <c r="D4">
-        <v>-0.0885365960446009</v>
+        <v>-0.02443353455716814</v>
       </c>
       <c r="E4">
-        <v>0.02487229073949523</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02678571198847917</v>
+      </c>
+      <c r="F4">
+        <v>-0.01269094964069349</v>
+      </c>
+      <c r="G4">
+        <v>-0.09548107825739144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01430290278730815</v>
+        <v>-0.03708692558972591</v>
       </c>
       <c r="C6">
-        <v>0.003520749671052206</v>
+        <v>0.05315266359192698</v>
       </c>
       <c r="D6">
-        <v>-0.08175621345408432</v>
+        <v>-0.01684246277192429</v>
       </c>
       <c r="E6">
-        <v>0.01614629539291077</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.03094795659086103</v>
+      </c>
+      <c r="F6">
+        <v>-0.0118210525399905</v>
+      </c>
+      <c r="G6">
+        <v>-0.07558152725695996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.011841052571766</v>
+        <v>-0.02064616149620038</v>
       </c>
       <c r="C7">
-        <v>-0.006628995124973849</v>
+        <v>0.04213361205769573</v>
       </c>
       <c r="D7">
-        <v>-0.0443463073955958</v>
+        <v>-0.01346699202532457</v>
       </c>
       <c r="E7">
-        <v>0.06428051544066497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.003800525365095345</v>
+      </c>
+      <c r="F7">
+        <v>0.003983597968612838</v>
+      </c>
+      <c r="G7">
+        <v>-0.1277972978131872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0005854706012279489</v>
+        <v>-0.003699801075110336</v>
       </c>
       <c r="C8">
-        <v>0.0007453299297651138</v>
+        <v>0.02514702352955662</v>
       </c>
       <c r="D8">
-        <v>-0.004713987598779231</v>
+        <v>-0.003991005204667474</v>
       </c>
       <c r="E8">
-        <v>0.008420181648857014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02340982165879964</v>
+      </c>
+      <c r="F8">
+        <v>-0.007233012017720295</v>
+      </c>
+      <c r="G8">
+        <v>-0.06710273916510393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01727086341087866</v>
+        <v>-0.03323660311139547</v>
       </c>
       <c r="C9">
-        <v>-0.01498040032893207</v>
+        <v>0.04934452293802152</v>
       </c>
       <c r="D9">
-        <v>-0.06374278539311383</v>
+        <v>-0.01668839777706102</v>
       </c>
       <c r="E9">
-        <v>0.0135327455377508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01710662620154648</v>
+      </c>
+      <c r="F9">
+        <v>-0.01030154779803144</v>
+      </c>
+      <c r="G9">
+        <v>-0.09547278082202897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0263974507501284</v>
+        <v>-0.09852109800282188</v>
       </c>
       <c r="C10">
-        <v>-0.1708866785752723</v>
+        <v>-0.1814212031350237</v>
       </c>
       <c r="D10">
-        <v>0.108123399272386</v>
+        <v>0.0147529304756937</v>
       </c>
       <c r="E10">
-        <v>-0.02090417984462933</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02057140611274681</v>
+      </c>
+      <c r="F10">
+        <v>0.02186247072109866</v>
+      </c>
+      <c r="G10">
+        <v>-0.0605134597576493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.001258277997219148</v>
+        <v>-0.03499277879773862</v>
       </c>
       <c r="C11">
-        <v>-0.004621855377169175</v>
+        <v>0.05501928509271949</v>
       </c>
       <c r="D11">
-        <v>-0.05753407859866786</v>
+        <v>-0.002276190601733381</v>
       </c>
       <c r="E11">
-        <v>0.006004910163321856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009827544412599367</v>
+      </c>
+      <c r="F11">
+        <v>-0.02129882781219331</v>
+      </c>
+      <c r="G11">
+        <v>-0.08428764211990841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005867768560238375</v>
+        <v>-0.03662145452151449</v>
       </c>
       <c r="C12">
-        <v>-0.004727235854387435</v>
+        <v>0.04924950863161533</v>
       </c>
       <c r="D12">
-        <v>-0.05151597710315692</v>
+        <v>-0.006178248981358285</v>
       </c>
       <c r="E12">
-        <v>0.0155563407904395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.002512353185952219</v>
+      </c>
+      <c r="F12">
+        <v>-0.001702582661511503</v>
+      </c>
+      <c r="G12">
+        <v>-0.07861587647776193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02493082252895888</v>
+        <v>-0.01581716065644391</v>
       </c>
       <c r="C13">
-        <v>-0.01880195475383857</v>
+        <v>0.04078126600911155</v>
       </c>
       <c r="D13">
-        <v>-0.03712511806026327</v>
+        <v>-0.02636017605121609</v>
       </c>
       <c r="E13">
-        <v>-0.0009026694816416656</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03117544035618529</v>
+      </c>
+      <c r="F13">
+        <v>-0.00757657890277543</v>
+      </c>
+      <c r="G13">
+        <v>-0.120958993315797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009192946875409409</v>
+        <v>-0.00868435876719157</v>
       </c>
       <c r="C14">
-        <v>-0.01340518662919099</v>
+        <v>0.02951772238133805</v>
       </c>
       <c r="D14">
-        <v>-0.01994710370290978</v>
+        <v>-0.009947384884398688</v>
       </c>
       <c r="E14">
-        <v>0.008134026152561749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.002667133712328262</v>
+      </c>
+      <c r="F14">
+        <v>0.008483587802021769</v>
+      </c>
+      <c r="G14">
+        <v>-0.09851869626143558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.00186831630888557</v>
+        <v>-0.03337597901743575</v>
       </c>
       <c r="C16">
-        <v>-0.009334039815239661</v>
+        <v>0.04862290535304129</v>
       </c>
       <c r="D16">
-        <v>-0.05108160995564116</v>
+        <v>-0.001892102276893396</v>
       </c>
       <c r="E16">
-        <v>0.01527559045490723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.009437923347344147</v>
+      </c>
+      <c r="F16">
+        <v>-0.002663408827612213</v>
+      </c>
+      <c r="G16">
+        <v>-0.08682369783572569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01611006437173657</v>
+        <v>-0.0219213404550496</v>
       </c>
       <c r="C19">
-        <v>-0.02036644838562233</v>
+        <v>0.05412611459436225</v>
       </c>
       <c r="D19">
-        <v>-0.04652092900706458</v>
+        <v>-0.01895866525249898</v>
       </c>
       <c r="E19">
-        <v>0.01468251205506074</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.0685722626062117</v>
+      </c>
+      <c r="F19">
+        <v>-0.02497766997010998</v>
+      </c>
+      <c r="G19">
+        <v>-0.1315677409202271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01167399532074265</v>
+        <v>-0.01493553614913916</v>
       </c>
       <c r="C20">
-        <v>-0.007273533496720727</v>
+        <v>0.04006761235860696</v>
       </c>
       <c r="D20">
-        <v>-0.03551009676764721</v>
+        <v>-0.01416548632604565</v>
       </c>
       <c r="E20">
-        <v>-0.00785901672038551</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02970268098523196</v>
+      </c>
+      <c r="F20">
+        <v>0.009930495511612149</v>
+      </c>
+      <c r="G20">
+        <v>-0.1060531020813228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01624413848643495</v>
+        <v>-0.01251715224482326</v>
       </c>
       <c r="C21">
-        <v>-0.01786836638024923</v>
+        <v>0.04055207997159065</v>
       </c>
       <c r="D21">
-        <v>-0.0377106671824842</v>
+        <v>-0.01869533653198344</v>
       </c>
       <c r="E21">
-        <v>0.009958279146720503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04240694821376195</v>
+      </c>
+      <c r="F21">
+        <v>-0.002710738088202606</v>
+      </c>
+      <c r="G21">
+        <v>-0.1300084597281916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0005935053972600684</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.000216179558427123</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0002734816572351588</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0009458210104643841</v>
+      </c>
+      <c r="F22">
+        <v>-0.0002997351074377239</v>
+      </c>
+      <c r="G22">
+        <v>-0.002261831351398765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0005978569745847798</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002158312762942193</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0002736164125870659</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0009516378608884482</v>
+      </c>
+      <c r="F23">
+        <v>-0.0002983874661225288</v>
+      </c>
+      <c r="G23">
+        <v>-0.002273276269130678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004510540034029671</v>
+        <v>-0.02842040519096584</v>
       </c>
       <c r="C24">
-        <v>0.002629300816859419</v>
+        <v>0.05162975985851365</v>
       </c>
       <c r="D24">
-        <v>-0.05157989074036907</v>
+        <v>-0.007118603464522158</v>
       </c>
       <c r="E24">
-        <v>0.01387992610074667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005457618308469542</v>
+      </c>
+      <c r="F24">
+        <v>-0.01381343670644213</v>
+      </c>
+      <c r="G24">
+        <v>-0.08555254733644825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01287335144287455</v>
+        <v>-0.04325090982803526</v>
       </c>
       <c r="C25">
-        <v>-0.01512977923131762</v>
+        <v>0.05943133791715588</v>
       </c>
       <c r="D25">
-        <v>-0.05891379986335449</v>
+        <v>-0.01109748226962798</v>
       </c>
       <c r="E25">
-        <v>0.01498485240234856</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001550277414489094</v>
+      </c>
+      <c r="F25">
+        <v>-0.007341282940947086</v>
+      </c>
+      <c r="G25">
+        <v>-0.09566234672319615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02317845976168851</v>
+        <v>-0.01391088065704095</v>
       </c>
       <c r="C26">
-        <v>-0.004609561229200317</v>
+        <v>0.01204461635684231</v>
       </c>
       <c r="D26">
-        <v>-0.002549010063824548</v>
+        <v>-0.02411350028785967</v>
       </c>
       <c r="E26">
-        <v>0.009141686611889733</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.007196459414525766</v>
+      </c>
+      <c r="F26">
+        <v>0.007504860697768255</v>
+      </c>
+      <c r="G26">
+        <v>-0.07931726756489108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.05074998521524975</v>
+        <v>-0.1252898517820637</v>
       </c>
       <c r="C28">
-        <v>-0.2380215161142054</v>
+        <v>-0.236936642943489</v>
       </c>
       <c r="D28">
-        <v>0.13844585346164</v>
+        <v>0.005638088402341556</v>
       </c>
       <c r="E28">
-        <v>0.001995149844708758</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.007310919350185985</v>
+      </c>
+      <c r="F28">
+        <v>0.0151380991460066</v>
+      </c>
+      <c r="G28">
+        <v>-0.05699567382374481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00972742826199742</v>
+        <v>-0.009613188427228156</v>
       </c>
       <c r="C29">
-        <v>-0.01805885157337947</v>
+        <v>0.02336207284862012</v>
       </c>
       <c r="D29">
-        <v>-0.02041561162612916</v>
+        <v>-0.008978375683485867</v>
       </c>
       <c r="E29">
-        <v>0.004727682671320655</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.00176557408355585</v>
+      </c>
+      <c r="F29">
+        <v>0.01777094107987897</v>
+      </c>
+      <c r="G29">
+        <v>-0.09209362045800389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02482926933996163</v>
+        <v>-0.04165750120807939</v>
       </c>
       <c r="C30">
-        <v>-0.0001161211870387553</v>
+        <v>0.07039652493222638</v>
       </c>
       <c r="D30">
-        <v>-0.1011222975058383</v>
+        <v>-0.02885900107304195</v>
       </c>
       <c r="E30">
-        <v>-0.02874114907925571</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05293834433512989</v>
+      </c>
+      <c r="F30">
+        <v>-0.04760993423432212</v>
+      </c>
+      <c r="G30">
+        <v>-0.1063734547126692</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01079718147252319</v>
+        <v>-0.05293533951570419</v>
       </c>
       <c r="C31">
-        <v>-0.0351539590859932</v>
+        <v>0.03791475496638937</v>
       </c>
       <c r="D31">
-        <v>-0.03561572768023655</v>
+        <v>-0.003890665655677202</v>
       </c>
       <c r="E31">
-        <v>0.008744862195965869</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.0009830789014763372</v>
+      </c>
+      <c r="F31">
+        <v>0.03933134163165174</v>
+      </c>
+      <c r="G31">
+        <v>-0.09235950593629137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005337539670475971</v>
+        <v>-0.001083159657018468</v>
       </c>
       <c r="C32">
-        <v>-0.01639148229049502</v>
+        <v>0.02593663705594051</v>
       </c>
       <c r="D32">
-        <v>-0.008968185408445919</v>
+        <v>0.003231748983792241</v>
       </c>
       <c r="E32">
-        <v>0.06062469460337689</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.02027123007350417</v>
+      </c>
+      <c r="F32">
+        <v>-0.04126876756212992</v>
+      </c>
+      <c r="G32">
+        <v>-0.0939227508937831</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01494927572640667</v>
+        <v>-0.02790419786597795</v>
       </c>
       <c r="C33">
-        <v>-0.02216121768145802</v>
+        <v>0.05075315065407907</v>
       </c>
       <c r="D33">
-        <v>-0.04281613244983265</v>
+        <v>-0.01576425031386107</v>
       </c>
       <c r="E33">
-        <v>-0.01710116440663959</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03615520547082444</v>
+      </c>
+      <c r="F33">
+        <v>-0.01839140194385074</v>
+      </c>
+      <c r="G33">
+        <v>-0.1431822199662261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003010163483233636</v>
+        <v>-0.04074513812661201</v>
       </c>
       <c r="C34">
-        <v>-0.01823286779896292</v>
+        <v>0.06189867882808561</v>
       </c>
       <c r="D34">
-        <v>-0.05615613469540427</v>
+        <v>0.004769153118270873</v>
       </c>
       <c r="E34">
-        <v>0.01984939046643618</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0006366140152796377</v>
+      </c>
+      <c r="F34">
+        <v>-0.01981390662714943</v>
+      </c>
+      <c r="G34">
+        <v>-0.09260459192565096</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01349623891850411</v>
+        <v>-0.01595708981609765</v>
       </c>
       <c r="C36">
-        <v>-0.0164311455930805</v>
+        <v>0.009733980481976136</v>
       </c>
       <c r="D36">
-        <v>-0.005926130284781153</v>
+        <v>-0.01236014662092865</v>
       </c>
       <c r="E36">
-        <v>0.008429735653506768</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004590300969686795</v>
+      </c>
+      <c r="F36">
+        <v>0.006573725195564644</v>
+      </c>
+      <c r="G36">
+        <v>-0.08547925777847555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.00140465098543421</v>
+        <v>-0.03226318711218666</v>
       </c>
       <c r="C38">
-        <v>-0.03416983208021096</v>
+        <v>0.0319167123420678</v>
       </c>
       <c r="D38">
-        <v>-0.04931971160675075</v>
+        <v>0.007464599947827613</v>
       </c>
       <c r="E38">
-        <v>0.01557888970608256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003234903782809831</v>
+      </c>
+      <c r="F38">
+        <v>0.01923480601385105</v>
+      </c>
+      <c r="G38">
+        <v>-0.0818859281026261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.00448672398987095</v>
+        <v>-0.03667390535215958</v>
       </c>
       <c r="C39">
-        <v>0.02133950204346127</v>
+        <v>0.08206535088880121</v>
       </c>
       <c r="D39">
-        <v>-0.1082014541060788</v>
+        <v>-0.01144640264335694</v>
       </c>
       <c r="E39">
-        <v>0.003659978878652373</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.021410301876777</v>
+      </c>
+      <c r="F39">
+        <v>-0.02479319013658149</v>
+      </c>
+      <c r="G39">
+        <v>-0.08405140708629232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01272934960964412</v>
+        <v>-0.01528870118420512</v>
       </c>
       <c r="C40">
-        <v>-0.01315040076467723</v>
+        <v>0.04331501358565918</v>
       </c>
       <c r="D40">
-        <v>-0.0429190095276516</v>
+        <v>-0.01479721911535969</v>
       </c>
       <c r="E40">
-        <v>0.01903131903170952</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02035345431261449</v>
+      </c>
+      <c r="F40">
+        <v>0.01624827011807766</v>
+      </c>
+      <c r="G40">
+        <v>-0.1221993275514012</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006823462759649779</v>
+        <v>-0.02016010758091564</v>
       </c>
       <c r="C41">
-        <v>-0.02011636600033356</v>
+        <v>0.002272483464595708</v>
       </c>
       <c r="D41">
-        <v>0.01203435806000479</v>
+        <v>-0.00439395226692051</v>
       </c>
       <c r="E41">
-        <v>0.003985119822795277</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.003198196118285564</v>
+      </c>
+      <c r="F41">
+        <v>0.01352706285071198</v>
+      </c>
+      <c r="G41">
+        <v>-0.07395059565083438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09137109735142721</v>
+        <v>-0.01061330881016219</v>
       </c>
       <c r="C42">
-        <v>0.02071257211130626</v>
+        <v>0.03217264105385763</v>
       </c>
       <c r="D42">
-        <v>-0.1645365597219712</v>
+        <v>-0.09020668177823224</v>
       </c>
       <c r="E42">
-        <v>-0.4405288209717746</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.01865416734693262</v>
+      </c>
+      <c r="F42">
+        <v>0.04415770919383039</v>
+      </c>
+      <c r="G42">
+        <v>0.1230345541557942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.008499618535943779</v>
+        <v>-0.03411352068403346</v>
       </c>
       <c r="C43">
-        <v>-0.02621409015183158</v>
+        <v>0.01784176858084545</v>
       </c>
       <c r="D43">
-        <v>0.008406836542269381</v>
+        <v>-0.00608192377408465</v>
       </c>
       <c r="E43">
-        <v>0.003988089459506359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01700925282269937</v>
+      </c>
+      <c r="F43">
+        <v>0.003206614933330453</v>
+      </c>
+      <c r="G43">
+        <v>-0.1082679093989291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003909616395270946</v>
+        <v>-0.01261659764906685</v>
       </c>
       <c r="C44">
-        <v>-0.005645398080104841</v>
+        <v>0.06007184060414572</v>
       </c>
       <c r="D44">
-        <v>-0.05558835504157691</v>
+        <v>-0.00682900674329715</v>
       </c>
       <c r="E44">
-        <v>0.01862207279049707</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01845863461029377</v>
+      </c>
+      <c r="F44">
+        <v>0.008742314220266957</v>
+      </c>
+      <c r="G44">
+        <v>-0.1018697087449398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01163135758710287</v>
+        <v>-0.008136208754761563</v>
       </c>
       <c r="C46">
-        <v>-0.01108838332465934</v>
+        <v>0.01810429221297317</v>
       </c>
       <c r="D46">
-        <v>-0.006841753500758933</v>
+        <v>-0.01268960794387492</v>
       </c>
       <c r="E46">
-        <v>-0.003383209839969441</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.00193254317752528</v>
+      </c>
+      <c r="F46">
+        <v>0.0168719715882951</v>
+      </c>
+      <c r="G46">
+        <v>-0.09631409518894593</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.005604625642737662</v>
+        <v>-0.07748077285557566</v>
       </c>
       <c r="C47">
-        <v>-0.04520332985274291</v>
+        <v>0.06687341198326176</v>
       </c>
       <c r="D47">
-        <v>-0.07044915366333632</v>
+        <v>0.005046987789950887</v>
       </c>
       <c r="E47">
-        <v>0.009640725759216831</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.005873005620129681</v>
+      </c>
+      <c r="F47">
+        <v>0.05511099652576153</v>
+      </c>
+      <c r="G47">
+        <v>-0.08164419430851104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004833041202038152</v>
+        <v>-0.01942162985080927</v>
       </c>
       <c r="C48">
-        <v>-0.02155170069224659</v>
+        <v>0.01294748159222225</v>
       </c>
       <c r="D48">
-        <v>-0.01715757917788858</v>
+        <v>-0.001991635687538372</v>
       </c>
       <c r="E48">
-        <v>0.001973817102911126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002335346945075233</v>
+      </c>
+      <c r="F48">
+        <v>0.0190652456357565</v>
+      </c>
+      <c r="G48">
+        <v>-0.08772062018663875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.007776321540856225</v>
+        <v>-0.07476597964636612</v>
       </c>
       <c r="C50">
-        <v>-0.04739699059300304</v>
+        <v>0.07196094036415508</v>
       </c>
       <c r="D50">
-        <v>-0.0687197956510706</v>
+        <v>0.002324154079313619</v>
       </c>
       <c r="E50">
-        <v>0.03035598156140157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.005778702647261011</v>
+      </c>
+      <c r="F50">
+        <v>0.05533280610942637</v>
+      </c>
+      <c r="G50">
+        <v>-0.09323903019977892</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008318120952890072</v>
+        <v>-0.01448989265938674</v>
       </c>
       <c r="C51">
-        <v>-0.01460610570376088</v>
+        <v>0.03777173238790985</v>
       </c>
       <c r="D51">
-        <v>-0.02242759169247255</v>
+        <v>-0.01054595772983673</v>
       </c>
       <c r="E51">
-        <v>0.008295053156793941</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01918519401477922</v>
+      </c>
+      <c r="F51">
+        <v>-0.02346415678897804</v>
+      </c>
+      <c r="G51">
+        <v>-0.1198597522765359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.009483706610111447</v>
+        <v>-0.08157665069355141</v>
       </c>
       <c r="C53">
-        <v>-0.05318591630089255</v>
+        <v>0.08533244422908746</v>
       </c>
       <c r="D53">
-        <v>-0.1244561359308964</v>
+        <v>0.003440318322025764</v>
       </c>
       <c r="E53">
-        <v>0.01848267859167304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02356287748262989</v>
+      </c>
+      <c r="F53">
+        <v>0.06626631662365477</v>
+      </c>
+      <c r="G53">
+        <v>-0.08012563535380275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002968598663922781</v>
+        <v>-0.03047795612098311</v>
       </c>
       <c r="C54">
-        <v>-0.0352920216439529</v>
+        <v>0.01592846462646555</v>
       </c>
       <c r="D54">
-        <v>0.001035376653461244</v>
+        <v>0.001489377769051904</v>
       </c>
       <c r="E54">
-        <v>-0.00118947316824699</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01197043028798411</v>
+      </c>
+      <c r="F54">
+        <v>0.001211951115257861</v>
+      </c>
+      <c r="G54">
+        <v>-0.09607302795280825</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.005158286179511046</v>
+        <v>-0.07193950043357464</v>
       </c>
       <c r="C55">
-        <v>-0.0366069341131707</v>
+        <v>0.06930821371660235</v>
       </c>
       <c r="D55">
-        <v>-0.1020063018558535</v>
+        <v>0.005002859729274708</v>
       </c>
       <c r="E55">
-        <v>0.006892691659403527</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02114179121003138</v>
+      </c>
+      <c r="F55">
+        <v>0.06265834154845072</v>
+      </c>
+      <c r="G55">
+        <v>-0.05748346770590446</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.008959952449793102</v>
+        <v>-0.1376936013784563</v>
       </c>
       <c r="C56">
-        <v>-0.07703515499320283</v>
+        <v>0.1082437393394367</v>
       </c>
       <c r="D56">
-        <v>-0.1532519954903135</v>
+        <v>0.01254906030551451</v>
       </c>
       <c r="E56">
-        <v>0.01192836440229104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0292871895304885</v>
+      </c>
+      <c r="F56">
+        <v>0.0817300352852945</v>
+      </c>
+      <c r="G56">
+        <v>-0.03044728777332148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02488837127309094</v>
+        <v>-0.006663004352871402</v>
       </c>
       <c r="C57">
-        <v>-0.009536886194861594</v>
+        <v>0.008487951412520895</v>
       </c>
       <c r="D57">
-        <v>-0.0440100946218419</v>
+        <v>-0.0234480636555255</v>
       </c>
       <c r="E57">
-        <v>-0.01483263884796768</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02542806598831743</v>
+      </c>
+      <c r="F57">
+        <v>-0.01099746521307983</v>
+      </c>
+      <c r="G57">
+        <v>-0.02922160628766749</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0150383786517264</v>
+        <v>-0.05479543023445747</v>
       </c>
       <c r="C58">
-        <v>-0.065609055369363</v>
+        <v>0.05361069826463584</v>
       </c>
       <c r="D58">
-        <v>-0.1667166454202081</v>
+        <v>-0.0236302594731771</v>
       </c>
       <c r="E58">
-        <v>-0.6020532705844361</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.939153442388614</v>
+      </c>
+      <c r="F58">
+        <v>0.2069750336576656</v>
+      </c>
+      <c r="G58">
+        <v>0.1584943653556001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.05112712799343017</v>
+        <v>-0.1600032672229916</v>
       </c>
       <c r="C59">
-        <v>-0.2662456457939861</v>
+        <v>-0.2035863032595464</v>
       </c>
       <c r="D59">
-        <v>0.1279635601118463</v>
+        <v>0.01122842051392898</v>
       </c>
       <c r="E59">
-        <v>0.01786164167094568</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01788798336921671</v>
+      </c>
+      <c r="F59">
+        <v>-0.002575997497352654</v>
+      </c>
+      <c r="G59">
+        <v>-0.04263263152933848</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04874249536457169</v>
+        <v>-0.2870960976676237</v>
       </c>
       <c r="C60">
-        <v>-0.162241281615497</v>
+        <v>0.1058204968625122</v>
       </c>
       <c r="D60">
-        <v>-0.1275596221071425</v>
+        <v>-0.01143387650963034</v>
       </c>
       <c r="E60">
-        <v>0.07941228639592787</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01504498942818934</v>
+      </c>
+      <c r="F60">
+        <v>-0.3459659017032755</v>
+      </c>
+      <c r="G60">
+        <v>0.1454383961301166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003798306869133961</v>
+        <v>-0.03828067204582139</v>
       </c>
       <c r="C61">
-        <v>-0.004928036591051739</v>
+        <v>0.06764069903220203</v>
       </c>
       <c r="D61">
-        <v>-0.07930678607771867</v>
+        <v>-0.00522282117355231</v>
       </c>
       <c r="E61">
-        <v>0.0200592627889114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.0139887436452554</v>
+      </c>
+      <c r="F61">
+        <v>-0.01545210050356843</v>
+      </c>
+      <c r="G61">
+        <v>-0.08881790492862263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008920804166691672</v>
+        <v>-0.01506655798603501</v>
       </c>
       <c r="C63">
-        <v>-0.008448549487533994</v>
+        <v>0.0306495345017171</v>
       </c>
       <c r="D63">
-        <v>-0.02744941466104974</v>
+        <v>-0.008611001041724518</v>
       </c>
       <c r="E63">
-        <v>0.02199791137293798</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.002041708967935513</v>
+      </c>
+      <c r="F63">
+        <v>0.0160277791091486</v>
+      </c>
+      <c r="G63">
+        <v>-0.09105762679790902</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.01028527931253737</v>
+        <v>-0.04769513104449338</v>
       </c>
       <c r="C64">
-        <v>-0.02894954110764338</v>
+        <v>0.04734734386686643</v>
       </c>
       <c r="D64">
-        <v>-0.06094510990079854</v>
+        <v>-0.006153689744229615</v>
       </c>
       <c r="E64">
-        <v>0.00548957269407124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0001822984664818658</v>
+      </c>
+      <c r="F64">
+        <v>-0.006276124325351106</v>
+      </c>
+      <c r="G64">
+        <v>-0.08599008879537008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01765344813053183</v>
+        <v>-0.07494548704115951</v>
       </c>
       <c r="C65">
-        <v>-0.001907141716557929</v>
+        <v>0.06001974279140766</v>
       </c>
       <c r="D65">
-        <v>-0.1035381750245502</v>
+        <v>-0.01639266297799172</v>
       </c>
       <c r="E65">
-        <v>0.02843844583317917</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.0315137480613089</v>
+      </c>
+      <c r="F65">
+        <v>-0.031972989670659</v>
+      </c>
+      <c r="G65">
+        <v>-0.03148562669434677</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005341705991327069</v>
+        <v>-0.05199705221988313</v>
       </c>
       <c r="C66">
-        <v>0.01451858008503491</v>
+        <v>0.1101672484300898</v>
       </c>
       <c r="D66">
-        <v>-0.1419062129816816</v>
+        <v>-0.01144301793894783</v>
       </c>
       <c r="E66">
-        <v>0.01293210217658492</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03052791651669391</v>
+      </c>
+      <c r="F66">
+        <v>-0.03635495065577746</v>
+      </c>
+      <c r="G66">
+        <v>-0.1005376574135429</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.005660243837789384</v>
+        <v>-0.05531145952544385</v>
       </c>
       <c r="C67">
-        <v>-0.05423382129774017</v>
+        <v>0.03515990203438895</v>
       </c>
       <c r="D67">
-        <v>-0.06341469500372798</v>
+        <v>0.005871559378562899</v>
       </c>
       <c r="E67">
-        <v>0.01808119395569786</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003365805573132386</v>
+      </c>
+      <c r="F67">
+        <v>0.01800564408548209</v>
+      </c>
+      <c r="G67">
+        <v>-0.07364761079354942</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06523279012690357</v>
+        <v>-0.1532410535103749</v>
       </c>
       <c r="C68">
-        <v>-0.2380914258842781</v>
+        <v>-0.269969573967826</v>
       </c>
       <c r="D68">
-        <v>0.168754590923938</v>
+        <v>-0.006195846007566221</v>
       </c>
       <c r="E68">
-        <v>-0.02886874198654684</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01240978467893698</v>
+      </c>
+      <c r="F68">
+        <v>0.03369673638491608</v>
+      </c>
+      <c r="G68">
+        <v>-0.03070665664763844</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001227255581054856</v>
+        <v>-0.0816724207361738</v>
       </c>
       <c r="C69">
-        <v>-0.03966654683874801</v>
+        <v>0.07005755626225751</v>
       </c>
       <c r="D69">
-        <v>-0.07420255006859273</v>
+        <v>0.008962490170387003</v>
       </c>
       <c r="E69">
-        <v>0.0238282031620696</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02224760668588181</v>
+      </c>
+      <c r="F69">
+        <v>0.03748900456520309</v>
+      </c>
+      <c r="G69">
+        <v>-0.09093465516513648</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04974668568244137</v>
+        <v>-0.1400008678182151</v>
       </c>
       <c r="C71">
-        <v>-0.2110551394699444</v>
+        <v>-0.2275762631416063</v>
       </c>
       <c r="D71">
-        <v>0.1150879230963747</v>
+        <v>0.00229405011034716</v>
       </c>
       <c r="E71">
-        <v>-0.02050006480276809</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03409592368601099</v>
+      </c>
+      <c r="F71">
+        <v>0.01866680131643131</v>
+      </c>
+      <c r="G71">
+        <v>-0.06762326688080875</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0003636774181151982</v>
+        <v>-0.0856056563306615</v>
       </c>
       <c r="C72">
-        <v>-0.03451478356432294</v>
+        <v>0.07313245030034592</v>
       </c>
       <c r="D72">
-        <v>-0.1093414438474685</v>
+        <v>0.008505462589563577</v>
       </c>
       <c r="E72">
-        <v>0.03998871548893992</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.005035436945443626</v>
+      </c>
+      <c r="F72">
+        <v>-0.03678891214378711</v>
+      </c>
+      <c r="G72">
+        <v>-0.07982250794600496</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.06320056771403222</v>
+        <v>-0.3766771786714407</v>
       </c>
       <c r="C73">
-        <v>-0.188381156786573</v>
+        <v>0.1144125590355733</v>
       </c>
       <c r="D73">
-        <v>-0.2376664713122033</v>
+        <v>-0.01904677340570638</v>
       </c>
       <c r="E73">
-        <v>0.06558666808466797</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.04965349539580819</v>
+      </c>
+      <c r="F73">
+        <v>-0.5746334026745584</v>
+      </c>
+      <c r="G73">
+        <v>0.2645730144566141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.006644916283577331</v>
+        <v>-0.1053825937635615</v>
       </c>
       <c r="C74">
-        <v>-0.06765181471545199</v>
+        <v>0.1094673932126067</v>
       </c>
       <c r="D74">
-        <v>-0.1682303252263808</v>
+        <v>0.009312029482083137</v>
       </c>
       <c r="E74">
-        <v>0.009014589561519324</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.004542392031607781</v>
+      </c>
+      <c r="F74">
+        <v>0.06840268473895955</v>
+      </c>
+      <c r="G74">
+        <v>-0.07434685154003819</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01699991517195008</v>
+        <v>-0.2490318737594078</v>
       </c>
       <c r="C75">
-        <v>-0.1546823779356598</v>
+        <v>0.1512496079606733</v>
       </c>
       <c r="D75">
-        <v>-0.2870955894280001</v>
+        <v>0.0307654101690881</v>
       </c>
       <c r="E75">
-        <v>0.008414879680643266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05286036232484137</v>
+      </c>
+      <c r="F75">
+        <v>0.1788582043468729</v>
+      </c>
+      <c r="G75">
+        <v>0.0413746104417044</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005057380024817838</v>
+        <v>-0.1205793991898917</v>
       </c>
       <c r="C76">
-        <v>-0.09881485446435258</v>
+        <v>0.1107715308396626</v>
       </c>
       <c r="D76">
-        <v>-0.2144466803559371</v>
+        <v>0.01878007256343509</v>
       </c>
       <c r="E76">
-        <v>0.04353877093509124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0273484021315186</v>
+      </c>
+      <c r="F76">
+        <v>0.112695858796853</v>
+      </c>
+      <c r="G76">
+        <v>-0.05063110632510203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01604361269387787</v>
+        <v>-0.06854315355186534</v>
       </c>
       <c r="C77">
-        <v>-0.02483585252515527</v>
+        <v>0.06228992839147521</v>
       </c>
       <c r="D77">
-        <v>-0.07169511901291731</v>
+        <v>-0.01148259269674996</v>
       </c>
       <c r="E77">
-        <v>-0.001979422960501001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04248102218301262</v>
+      </c>
+      <c r="F77">
+        <v>-0.01108828048926386</v>
+      </c>
+      <c r="G77">
+        <v>-0.06298950505406202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.006155685582117951</v>
+        <v>-0.04258463765861025</v>
       </c>
       <c r="C78">
-        <v>-0.01467504698801382</v>
+        <v>0.05215657815876559</v>
       </c>
       <c r="D78">
-        <v>-0.05813782126276487</v>
+        <v>-0.005440090360811306</v>
       </c>
       <c r="E78">
-        <v>0.007755599015170866</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02205082890507327</v>
+      </c>
+      <c r="F78">
+        <v>-0.03650034085396053</v>
+      </c>
+      <c r="G78">
+        <v>-0.08838919380709645</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01188101196011521</v>
+        <v>-0.04360365214411309</v>
       </c>
       <c r="C80">
-        <v>-0.02481730741746792</v>
+        <v>0.07451440703170792</v>
       </c>
       <c r="D80">
-        <v>-0.1480021561250131</v>
+        <v>-0.01129297390619504</v>
       </c>
       <c r="E80">
-        <v>0.6204165521349643</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03305556763328218</v>
+      </c>
+      <c r="F80">
+        <v>-0.02911238218691874</v>
+      </c>
+      <c r="G80">
+        <v>-0.3427453795119503</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.01215296730663108</v>
+        <v>-0.1396607795780831</v>
       </c>
       <c r="C81">
-        <v>-0.09777470702415009</v>
+        <v>0.09675790947556133</v>
       </c>
       <c r="D81">
-        <v>-0.1732903078356693</v>
+        <v>0.01506781005061865</v>
       </c>
       <c r="E81">
-        <v>0.02479942955195051</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03069665655341107</v>
+      </c>
+      <c r="F81">
+        <v>0.1347311190165257</v>
+      </c>
+      <c r="G81">
+        <v>-0.02409520723535844</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1277117124603488</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07303846837174922</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.00811997243407196</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08966467118274937</v>
+      </c>
+      <c r="F82">
+        <v>0.04354173492295361</v>
+      </c>
+      <c r="G82">
+        <v>-0.05623635633408834</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.008391009360567704</v>
+        <v>-0.03655628577520937</v>
       </c>
       <c r="C83">
-        <v>-0.02246756690216531</v>
+        <v>0.02988335576690586</v>
       </c>
       <c r="D83">
-        <v>-0.03572246490474137</v>
+        <v>-0.005594434415439793</v>
       </c>
       <c r="E83">
-        <v>-0.0002774783119609134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02721104589096137</v>
+      </c>
+      <c r="F83">
+        <v>-0.03275713945911078</v>
+      </c>
+      <c r="G83">
+        <v>-0.05974354590591067</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02302807991863697</v>
+        <v>-0.2141934848878556</v>
       </c>
       <c r="C85">
-        <v>-0.1205555771261876</v>
+        <v>0.1447573521929706</v>
       </c>
       <c r="D85">
-        <v>-0.2596576054617386</v>
+        <v>0.01806720830162587</v>
       </c>
       <c r="E85">
-        <v>0.0194159684971944</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09277997175889326</v>
+      </c>
+      <c r="F85">
+        <v>0.1380882115775751</v>
+      </c>
+      <c r="G85">
+        <v>0.09850022594573868</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01077165580999573</v>
+        <v>-0.0147410320261862</v>
       </c>
       <c r="C86">
-        <v>-0.03006755763664742</v>
+        <v>0.03094910305807721</v>
       </c>
       <c r="D86">
-        <v>-0.06034164157171744</v>
+        <v>-0.01239117878397575</v>
       </c>
       <c r="E86">
-        <v>-0.03484849459393308</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04921863213730702</v>
+      </c>
+      <c r="F86">
+        <v>-0.03081023103606831</v>
+      </c>
+      <c r="G86">
+        <v>-0.182547984077628</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008280531512381107</v>
+        <v>-0.02265580012957422</v>
       </c>
       <c r="C87">
-        <v>-0.001078808188443764</v>
+        <v>0.02415390626058455</v>
       </c>
       <c r="D87">
-        <v>-0.05636660860504123</v>
+        <v>-0.01191354811178558</v>
       </c>
       <c r="E87">
-        <v>-0.007063118816997082</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08659173741475355</v>
+      </c>
+      <c r="F87">
+        <v>-0.01722671313501171</v>
+      </c>
+      <c r="G87">
+        <v>-0.1154684390816308</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.0289648060343474</v>
+        <v>-0.0921517026525378</v>
       </c>
       <c r="C88">
-        <v>-0.02987792527574018</v>
+        <v>0.06722409886958773</v>
       </c>
       <c r="D88">
-        <v>-0.05525261717232354</v>
+        <v>-0.02269513879717325</v>
       </c>
       <c r="E88">
-        <v>8.02796462525353e-05</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.006934668622917448</v>
+      </c>
+      <c r="F88">
+        <v>0.01626336930160047</v>
+      </c>
+      <c r="G88">
+        <v>-0.08089761452852888</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.09419664317503221</v>
+        <v>-0.2322945282937219</v>
       </c>
       <c r="C89">
-        <v>-0.3880420607551642</v>
+        <v>-0.3687132586341083</v>
       </c>
       <c r="D89">
-        <v>0.215809722890776</v>
+        <v>-0.0001816865752628487</v>
       </c>
       <c r="E89">
-        <v>0.02617183149643152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01276793833255063</v>
+      </c>
+      <c r="F89">
+        <v>0.02769032662002646</v>
+      </c>
+      <c r="G89">
+        <v>-0.07162702291336652</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.0723122728488253</v>
+        <v>-0.2072967529497972</v>
       </c>
       <c r="C90">
-        <v>-0.3041289508725188</v>
+        <v>-0.3185654348561446</v>
       </c>
       <c r="D90">
-        <v>0.190162530432355</v>
+        <v>0.00404497833565248</v>
       </c>
       <c r="E90">
-        <v>-0.01920084182557162</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.001277838428011148</v>
+      </c>
+      <c r="F90">
+        <v>0.05453599511458877</v>
+      </c>
+      <c r="G90">
+        <v>-0.03714566458285296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.01326203727902792</v>
+        <v>-0.1874534378767203</v>
       </c>
       <c r="C91">
-        <v>-0.1352926424148432</v>
+        <v>0.1390980216875519</v>
       </c>
       <c r="D91">
-        <v>-0.2131006342138079</v>
+        <v>0.02241290603304575</v>
       </c>
       <c r="E91">
-        <v>0.02287447674398758</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05704531328817806</v>
+      </c>
+      <c r="F91">
+        <v>0.1484453641197114</v>
+      </c>
+      <c r="G91">
+        <v>-0.01704552605030221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.0413252969174928</v>
+        <v>-0.1998956860604936</v>
       </c>
       <c r="C92">
-        <v>-0.3204551666744106</v>
+        <v>-0.2551028941032031</v>
       </c>
       <c r="D92">
-        <v>0.08584059342066047</v>
+        <v>0.03756935290606519</v>
       </c>
       <c r="E92">
-        <v>-0.02985237096732654</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.04099591962074004</v>
+      </c>
+      <c r="F92">
+        <v>0.05593467349871666</v>
+      </c>
+      <c r="G92">
+        <v>-0.1314343772477952</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.0717586648943906</v>
+        <v>-0.2322450126454879</v>
       </c>
       <c r="C93">
-        <v>-0.3315784874669881</v>
+        <v>-0.3148122988741707</v>
       </c>
       <c r="D93">
-        <v>0.1654485981405217</v>
+        <v>0.01103350880867436</v>
       </c>
       <c r="E93">
-        <v>-0.02678483391208</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01017677135940655</v>
+      </c>
+      <c r="F93">
+        <v>0.04113207807941451</v>
+      </c>
+      <c r="G93">
+        <v>-0.0485337385393589</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.0410431197999358</v>
+        <v>-0.31599835717709</v>
       </c>
       <c r="C94">
-        <v>-0.1691310297901117</v>
+        <v>0.1745375375535587</v>
       </c>
       <c r="D94">
-        <v>-0.2485479684821209</v>
+        <v>0.01721725824614723</v>
       </c>
       <c r="E94">
-        <v>-0.007865572039498191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1677774772504486</v>
+      </c>
+      <c r="F94">
+        <v>0.4838629759826825</v>
+      </c>
+      <c r="G94">
+        <v>0.3815796764305255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.002480526416025682</v>
+        <v>-0.1004931780328802</v>
       </c>
       <c r="C95">
-        <v>-0.03518028054289952</v>
+        <v>0.08578069039659113</v>
       </c>
       <c r="D95">
-        <v>-0.1153852973082841</v>
+        <v>0.01059181045313866</v>
       </c>
       <c r="E95">
-        <v>-0.1312516889982567</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06472275782038432</v>
+      </c>
+      <c r="F95">
+        <v>-0.2112232889133617</v>
+      </c>
+      <c r="G95">
+        <v>0.09667582712026626</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.02039664116707626</v>
+        <v>-0.1976369471901092</v>
       </c>
       <c r="C98">
-        <v>-0.1575343235897429</v>
+        <v>0.04493403428163353</v>
       </c>
       <c r="D98">
-        <v>-0.1423281182962891</v>
+        <v>0.01388154776655254</v>
       </c>
       <c r="E98">
-        <v>0.009172862217288977</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.05923762947614468</v>
+      </c>
+      <c r="F98">
+        <v>-0.2417123599962944</v>
+      </c>
+      <c r="G98">
+        <v>0.009437054464746712</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009530956368432915</v>
+        <v>-0.009450199330645099</v>
       </c>
       <c r="C101">
-        <v>-0.01786805886700151</v>
+        <v>0.02332527031949392</v>
       </c>
       <c r="D101">
-        <v>-0.0203599452516212</v>
+        <v>-0.008806714712177054</v>
       </c>
       <c r="E101">
-        <v>0.004557974732389192</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.001553557029343492</v>
+      </c>
+      <c r="F101">
+        <v>0.01865514938596236</v>
+      </c>
+      <c r="G101">
+        <v>-0.09115386511772013</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01936303506381293</v>
+        <v>-0.1171260704574414</v>
       </c>
       <c r="C102">
-        <v>-0.06136372211832093</v>
+        <v>0.08366436176542744</v>
       </c>
       <c r="D102">
-        <v>-0.1213956452270743</v>
+        <v>-0.0007324783777163365</v>
       </c>
       <c r="E102">
-        <v>0.01189683014302868</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.034242478850338</v>
+      </c>
+      <c r="F102">
+        <v>0.04063585564523801</v>
+      </c>
+      <c r="G102">
+        <v>-0.004731510239078603</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.000614808249918275</v>
+        <v>-0.0008858380849674082</v>
       </c>
       <c r="C103">
-        <v>-0.001525893481572297</v>
+        <v>0.002335040171714198</v>
       </c>
       <c r="D103">
-        <v>-0.008903612917077253</v>
+        <v>-0.0002923684236618058</v>
       </c>
       <c r="E103">
-        <v>-0.005220239929929804</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.003021649594695265</v>
+      </c>
+      <c r="F103">
+        <v>0.003966679249358925</v>
+      </c>
+      <c r="G103">
+        <v>-0.004651924830242633</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9687865039232929</v>
+        <v>-0.02116641619925475</v>
       </c>
       <c r="C104">
-        <v>0.2079659893400012</v>
+        <v>-0.02920856383628722</v>
       </c>
       <c r="D104">
-        <v>0.02272142419857521</v>
+        <v>-0.9878420921584351</v>
       </c>
       <c r="E104">
-        <v>0.03500288703750198</v>
+        <v>0.04581201501411999</v>
+      </c>
+      <c r="F104">
+        <v>0.03543777444134406</v>
+      </c>
+      <c r="G104">
+        <v>0.03326621501811566</v>
       </c>
     </row>
   </sheetData>
